--- a/output/TRUXT_26261488000102.xlsx
+++ b/output/TRUXT_26261488000102.xlsx
@@ -856,10 +856,10 @@
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.253474</v>
+        <v>0.2586090999999999</v>
       </c>
       <c r="C43">
-        <v>-0.006941728255118074</v>
+        <v>-0.002873471928112381</v>
       </c>
     </row>
   </sheetData>

--- a/output/TRUXT_26261488000102.xlsx
+++ b/output/TRUXT_26261488000102.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TRUXT MACRO ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,480 +383,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42916</v>
       </c>
       <c r="B2">
-        <v>0.002864299999999931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42947</v>
       </c>
       <c r="B3">
-        <v>0.02572949999999996</v>
-      </c>
-      <c r="C3">
         <v>0.02279989426286289</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42978</v>
       </c>
       <c r="B4">
-        <v>0.04792219999999991</v>
-      </c>
-      <c r="C4">
         <v>0.02163601612315924</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43008</v>
       </c>
       <c r="B5">
-        <v>0.06838450000000007</v>
-      </c>
-      <c r="C5">
         <v>0.01952654500496331</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43039</v>
       </c>
       <c r="B6">
-        <v>0.07118350000000007</v>
-      </c>
-      <c r="C6">
         <v>0.002619843324196403</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43069</v>
       </c>
       <c r="B7">
-        <v>0.07139699999999993</v>
-      </c>
-      <c r="C7">
         <v>0.0001993122560233207</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43100</v>
       </c>
       <c r="B8">
-        <v>0.07940569999999991</v>
-      </c>
-      <c r="C8">
         <v>0.007475006930204087</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43131</v>
       </c>
       <c r="B9">
-        <v>0.1003708999999999</v>
-      </c>
-      <c r="C9">
         <v>0.01942291021809495</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43159</v>
       </c>
       <c r="B10">
-        <v>0.1031574</v>
-      </c>
-      <c r="C10">
         <v>0.002532327963234993</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43190</v>
       </c>
       <c r="B11">
-        <v>0.1063082</v>
-      </c>
-      <c r="C11">
         <v>0.002856165403051225</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43220</v>
       </c>
       <c r="B12">
-        <v>0.107761</v>
-      </c>
-      <c r="C12">
         <v>0.001313196449235443</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43251</v>
       </c>
       <c r="B13">
-        <v>0.1232222999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01395725251204905</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43281</v>
       </c>
       <c r="B14">
-        <v>0.1378451000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01301861617241773</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43312</v>
       </c>
       <c r="B15">
-        <v>0.1355156</v>
-      </c>
-      <c r="C15">
         <v>-0.002047290971328275</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43343</v>
       </c>
       <c r="B16">
-        <v>0.1507837999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01344605041093216</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43373</v>
       </c>
       <c r="B17">
-        <v>0.1496868</v>
-      </c>
-      <c r="C17">
         <v>-0.0009532633323477979</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43404</v>
       </c>
       <c r="B18">
-        <v>0.1519462</v>
-      </c>
-      <c r="C18">
         <v>0.001965230878531399</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43434</v>
       </c>
       <c r="B19">
-        <v>0.1454652000000001</v>
-      </c>
-      <c r="C19">
         <v>-0.005626130803678131</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43465</v>
       </c>
       <c r="B20">
-        <v>0.1500895</v>
-      </c>
-      <c r="C20">
         <v>0.004037049750616584</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43496</v>
       </c>
       <c r="B21">
-        <v>0.1774545000000001</v>
-      </c>
-      <c r="C21">
         <v>0.02379380039553447</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43524</v>
       </c>
       <c r="B22">
-        <v>0.1694545000000001</v>
-      </c>
-      <c r="C22">
         <v>-0.006794317742214284</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43555</v>
       </c>
       <c r="B23">
-        <v>0.1801003999999999</v>
-      </c>
-      <c r="C23">
         <v>0.009103304147360936</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43585</v>
       </c>
       <c r="B24">
-        <v>0.1823570999999999</v>
-      </c>
-      <c r="C24">
         <v>0.001912294919991453</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43616</v>
       </c>
       <c r="B25">
-        <v>0.1834476</v>
-      </c>
-      <c r="C25">
         <v>0.0009223101886901564</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43646</v>
       </c>
       <c r="B26">
-        <v>0.2062953000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01930605123539064</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43677</v>
       </c>
       <c r="B27">
-        <v>0.2164618</v>
-      </c>
-      <c r="C27">
         <v>0.00842787002486034</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43708</v>
       </c>
       <c r="B28">
-        <v>0.2328587</v>
-      </c>
-      <c r="C28">
         <v>0.01347917378087815</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43738</v>
       </c>
       <c r="B29">
-        <v>0.2341089000000001</v>
-      </c>
-      <c r="C29">
         <v>0.00101406592661446</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43769</v>
       </c>
       <c r="B30">
-        <v>0.2422953999999999</v>
-      </c>
-      <c r="C30">
         <v>0.006633531287230765</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43799</v>
       </c>
       <c r="B31">
-        <v>0.2135792000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.02311543615149814</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
       <c r="B32">
-        <v>0.2338184000000001</v>
-      </c>
-      <c r="C32">
         <v>0.01667727990064427</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43861</v>
       </c>
       <c r="B33">
-        <v>0.2173921000000001</v>
-      </c>
-      <c r="C33">
         <v>-0.01331338550308536</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43890</v>
       </c>
       <c r="B34">
-        <v>0.2140784</v>
-      </c>
-      <c r="C34">
         <v>-0.002721966078143678</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43921</v>
       </c>
       <c r="B35">
-        <v>0.2232879999999999</v>
-      </c>
-      <c r="C35">
         <v>0.007585671567832852</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43951</v>
       </c>
       <c r="B36">
-        <v>0.2286783999999999</v>
-      </c>
-      <c r="C36">
         <v>0.004406484817966128</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43982</v>
       </c>
       <c r="B37">
-        <v>0.2428816</v>
-      </c>
-      <c r="C37">
         <v>0.01155973768237484</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44012</v>
       </c>
       <c r="B38">
-        <v>0.2387774</v>
-      </c>
-      <c r="C38">
         <v>-0.003302164904525062</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44043</v>
       </c>
       <c r="B39">
-        <v>0.2549272</v>
-      </c>
-      <c r="C39">
         <v>0.01303688620732024</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44074</v>
       </c>
       <c r="B40">
-        <v>0.2724089999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01393052919723137</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44104</v>
       </c>
       <c r="B41">
-        <v>0.2685209</v>
-      </c>
-      <c r="C41">
         <v>-0.003055699857514305</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44135</v>
       </c>
       <c r="B42">
-        <v>0.2622361</v>
-      </c>
-      <c r="C42">
         <v>-0.00495443157459996</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44165</v>
       </c>
       <c r="B43">
-        <v>0.2586090999999999</v>
-      </c>
-      <c r="C43">
-        <v>-0.002873471928112381</v>
+        <v>-0.002872917356744997</v>
       </c>
     </row>
   </sheetData>
